--- a/speech_processing/analysis/results/cepstrum/F0_comparison_studio_male.xlsx
+++ b/speech_processing/analysis/results/cepstrum/F0_comparison_studio_male.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>271.19</v>
+        <v>363.64</v>
       </c>
       <c r="C2" t="n">
-        <v>271.19</v>
+        <v>363.64</v>
       </c>
       <c r="D2" t="n">
-        <v>15.37627759006184</v>
+        <v>12.98157795949025</v>
       </c>
     </row>
     <row r="3">
@@ -482,860 +482,860 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>147.4656066894531</v>
       </c>
       <c r="B4" t="n">
-        <v>271.19</v>
+        <v>148.15</v>
       </c>
       <c r="C4" t="n">
-        <v>271.19</v>
+        <v>0.6843933105468807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>147.4656066894531</v>
+        <v>141.0051116943359</v>
       </c>
       <c r="B5" t="n">
-        <v>148.15</v>
+        <v>135.59</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6843933105468807</v>
+        <v>5.415111694335934</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>141.0051116943359</v>
+        <v>128.6971130371094</v>
       </c>
       <c r="B6" t="n">
-        <v>135.59</v>
+        <v>130.08</v>
       </c>
       <c r="C6" t="n">
-        <v>5.415111694335934</v>
+        <v>1.382886962890638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>128.6971130371094</v>
+        <v>120.2231903076172</v>
       </c>
       <c r="B7" t="n">
-        <v>130.08</v>
+        <v>121.21</v>
       </c>
       <c r="C7" t="n">
-        <v>1.382886962890638</v>
+        <v>0.9868096923828062</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>120.2231903076172</v>
+        <v>115.4156188964844</v>
       </c>
       <c r="B8" t="n">
-        <v>121.21</v>
+        <v>114.29</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9868096923828062</v>
+        <v>1.125618896484369</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>115.4156188964844</v>
+        <v>109.3383483886719</v>
       </c>
       <c r="B9" t="n">
-        <v>114.29</v>
+        <v>108.11</v>
       </c>
       <c r="C9" t="n">
-        <v>1.125618896484369</v>
+        <v>1.228348388671876</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109.3383483886719</v>
+        <v>102.3683395385742</v>
       </c>
       <c r="B10" t="n">
-        <v>114.29</v>
+        <v>105.96</v>
       </c>
       <c r="C10" t="n">
-        <v>4.951651611328131</v>
+        <v>3.591660461425775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>102.3683395385742</v>
+        <v>103.8879470825195</v>
       </c>
       <c r="B11" t="n">
-        <v>111.89</v>
+        <v>207.79</v>
       </c>
       <c r="C11" t="n">
-        <v>9.521660461425782</v>
+        <v>103.9020529174805</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>103.8879470825195</v>
+        <v>102.3430786132812</v>
       </c>
       <c r="B12" t="n">
-        <v>105.96</v>
+        <v>100.63</v>
       </c>
       <c r="C12" t="n">
-        <v>2.072052917480462</v>
+        <v>1.713078613281255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102.3430786132812</v>
+        <v>126.3330993652344</v>
       </c>
       <c r="B13" t="n">
-        <v>74.77</v>
+        <v>131.15</v>
       </c>
       <c r="C13" t="n">
-        <v>27.57307861328125</v>
+        <v>4.816900634765631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111.2038269042969</v>
+        <v>118.4041366577148</v>
       </c>
       <c r="B14" t="n">
-        <v>74.77</v>
+        <v>118.52</v>
       </c>
       <c r="C14" t="n">
-        <v>36.43382690429688</v>
+        <v>0.1158633422851523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>117.4532623291016</v>
       </c>
       <c r="B15" t="n">
-        <v>74.77</v>
+        <v>117.65</v>
       </c>
       <c r="C15" t="n">
-        <v>74.77</v>
+        <v>0.1967376708984432</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>126.3330993652344</v>
+        <v>116.6745300292969</v>
       </c>
       <c r="B16" t="n">
-        <v>117.65</v>
+        <v>116.79</v>
       </c>
       <c r="C16" t="n">
-        <v>8.683099365234369</v>
+        <v>0.1154699707031313</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>118.4041366577148</v>
+        <v>116.4749374389648</v>
       </c>
       <c r="B17" t="n">
-        <v>117.65</v>
+        <v>116.79</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7541366577148381</v>
+        <v>0.3150625610351625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>117.4532623291016</v>
+        <v>114.365104675293</v>
       </c>
       <c r="B18" t="n">
-        <v>117.65</v>
+        <v>114.29</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1967376708984432</v>
+        <v>0.0751046752929625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>116.6745300292969</v>
+        <v>111.8533020019531</v>
       </c>
       <c r="B19" t="n">
-        <v>116.79</v>
+        <v>112.68</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1154699707031313</v>
+        <v>0.8266979980468818</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>116.4749374389648</v>
+        <v>115.2829666137695</v>
       </c>
       <c r="B20" t="n">
-        <v>116.79</v>
+        <v>115.94</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3150625610351625</v>
+        <v>0.6570333862304665</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>114.365104675293</v>
+        <v>115.4816818237305</v>
       </c>
       <c r="B21" t="n">
-        <v>114.29</v>
+        <v>115.11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0751046752929625</v>
+        <v>0.3716818237304693</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111.8533020019531</v>
+        <v>117.450309753418</v>
       </c>
       <c r="B22" t="n">
-        <v>112.68</v>
+        <v>118.52</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8266979980468818</v>
+        <v>1.069690246582027</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>108.6672286987305</v>
+        <v>113.0505599975586</v>
       </c>
       <c r="B23" t="n">
-        <v>112.68</v>
+        <v>117.65</v>
       </c>
       <c r="C23" t="n">
-        <v>4.012771301269538</v>
+        <v>4.599440002441412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>142.4867095947266</v>
       </c>
       <c r="B24" t="n">
-        <v>112.68</v>
+        <v>144.14</v>
       </c>
       <c r="C24" t="n">
-        <v>112.68</v>
+        <v>1.653290405273424</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>115.2829666137695</v>
+        <v>137.3470306396484</v>
       </c>
       <c r="B25" t="n">
-        <v>115.11</v>
+        <v>139.13</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1729666137695318</v>
+        <v>1.782969360351558</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>115.4816818237305</v>
+        <v>131.3543395996094</v>
       </c>
       <c r="B26" t="n">
-        <v>115.94</v>
+        <v>132.23</v>
       </c>
       <c r="C26" t="n">
-        <v>0.458318176269529</v>
+        <v>0.8756604003906148</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>117.450309753418</v>
+        <v>127.9216613769531</v>
       </c>
       <c r="B27" t="n">
-        <v>115.94</v>
+        <v>129.03</v>
       </c>
       <c r="C27" t="n">
-        <v>1.510309753417971</v>
+        <v>1.108338623046876</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>113.0505599975586</v>
+        <v>125.0066680908203</v>
       </c>
       <c r="B28" t="n">
-        <v>115.11</v>
+        <v>125</v>
       </c>
       <c r="C28" t="n">
-        <v>2.059440002441406</v>
+        <v>0.0066680908203125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>142.4867095947266</v>
+        <v>121.6301727294922</v>
       </c>
       <c r="B29" t="n">
-        <v>132.23</v>
+        <v>123.08</v>
       </c>
       <c r="C29" t="n">
-        <v>10.25670959472657</v>
+        <v>1.449827270507811</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>137.3470306396484</v>
+        <v>119.6223907470703</v>
       </c>
       <c r="B30" t="n">
-        <v>132.23</v>
+        <v>119.4</v>
       </c>
       <c r="C30" t="n">
-        <v>5.117030639648448</v>
+        <v>0.2223907470703068</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131.3543395996094</v>
+        <v>118.2478866577148</v>
       </c>
       <c r="B31" t="n">
-        <v>132.23</v>
+        <v>119.4</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8756604003906148</v>
+        <v>1.152113342285162</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>127.9216613769531</v>
+        <v>115.4074401855469</v>
       </c>
       <c r="B32" t="n">
-        <v>129.03</v>
+        <v>114.29</v>
       </c>
       <c r="C32" t="n">
-        <v>1.108338623046876</v>
+        <v>1.117440185546869</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>125.0066680908203</v>
+        <v>116.1727752685547</v>
       </c>
       <c r="B33" t="n">
-        <v>125</v>
+        <v>115.94</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0066680908203125</v>
+        <v>0.2327752685546898</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>121.6301727294922</v>
+        <v>112.9616851806641</v>
       </c>
       <c r="B34" t="n">
-        <v>123.08</v>
+        <v>112.68</v>
       </c>
       <c r="C34" t="n">
-        <v>1.449827270507811</v>
+        <v>0.2816851806640557</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>119.6223907470703</v>
+        <v>112.4724197387695</v>
       </c>
       <c r="B35" t="n">
-        <v>119.4</v>
+        <v>112.68</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2223907470703068</v>
+        <v>0.2075802612304756</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>118.2478866577148</v>
+        <v>112.3762283325195</v>
       </c>
       <c r="B36" t="n">
-        <v>119.4</v>
+        <v>112.68</v>
       </c>
       <c r="C36" t="n">
-        <v>1.152113342285162</v>
+        <v>0.3037716674804756</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>115.4074401855469</v>
+        <v>115.5209503173828</v>
       </c>
       <c r="B37" t="n">
-        <v>114.29</v>
+        <v>115.11</v>
       </c>
       <c r="C37" t="n">
-        <v>1.117440185546869</v>
+        <v>0.4109503173828131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>116.1727752685547</v>
+        <v>118.1757965087891</v>
       </c>
       <c r="B38" t="n">
-        <v>112.68</v>
+        <v>119.4</v>
       </c>
       <c r="C38" t="n">
-        <v>3.492775268554681</v>
+        <v>1.224203491210943</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112.9616851806641</v>
+        <v>119.7710952758789</v>
       </c>
       <c r="B39" t="n">
-        <v>112.68</v>
+        <v>121.21</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2816851806640557</v>
+        <v>1.438904724121087</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112.4724197387695</v>
+        <v>122.5531616210938</v>
       </c>
       <c r="B40" t="n">
-        <v>113.48</v>
+        <v>124.03</v>
       </c>
       <c r="C40" t="n">
-        <v>1.007580261230473</v>
+        <v>1.476838378906251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112.3762283325195</v>
+        <v>124.2286071777344</v>
       </c>
       <c r="B41" t="n">
-        <v>113.48</v>
+        <v>125</v>
       </c>
       <c r="C41" t="n">
-        <v>1.103771667480473</v>
+        <v>0.771392822265625</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>115.5209503173828</v>
+        <v>130.1122894287109</v>
       </c>
       <c r="B42" t="n">
-        <v>115.11</v>
+        <v>129.03</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4109503173828131</v>
+        <v>1.082289428710936</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>118.1757965087891</v>
+        <v>138.2060546875</v>
       </c>
       <c r="B43" t="n">
-        <v>119.4</v>
+        <v>135.59</v>
       </c>
       <c r="C43" t="n">
-        <v>1.224203491210943</v>
+        <v>2.616054687499997</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>119.7710952758789</v>
+        <v>142.0022735595703</v>
       </c>
       <c r="B44" t="n">
-        <v>121.21</v>
+        <v>142.86</v>
       </c>
       <c r="C44" t="n">
-        <v>1.438904724121087</v>
+        <v>0.8577264404297011</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>122.5531616210938</v>
+        <v>141.4908905029297</v>
       </c>
       <c r="B45" t="n">
-        <v>124.03</v>
+        <v>141.59</v>
       </c>
       <c r="C45" t="n">
-        <v>1.476838378906251</v>
+        <v>0.09910949707031591</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>124.2286071777344</v>
+        <v>139.5077056884766</v>
       </c>
       <c r="B46" t="n">
-        <v>125</v>
+        <v>140.35</v>
       </c>
       <c r="C46" t="n">
-        <v>0.771392822265625</v>
+        <v>0.8422943115234318</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130.1122894287109</v>
+        <v>136.52001953125</v>
       </c>
       <c r="B47" t="n">
-        <v>125</v>
+        <v>137.93</v>
       </c>
       <c r="C47" t="n">
-        <v>5.112289428710938</v>
+        <v>1.409980468750007</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>138.2060546875</v>
+        <v>132.7335205078125</v>
       </c>
       <c r="B48" t="n">
-        <v>129.03</v>
+        <v>134.45</v>
       </c>
       <c r="C48" t="n">
-        <v>9.176054687499999</v>
+        <v>1.716479492187489</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>142.0022735595703</v>
+        <v>128.6854400634766</v>
       </c>
       <c r="B49" t="n">
-        <v>135.59</v>
+        <v>130.08</v>
       </c>
       <c r="C49" t="n">
-        <v>6.412273559570309</v>
+        <v>1.39455993652345</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>141.4908905029297</v>
+        <v>119.4217376708984</v>
       </c>
       <c r="B50" t="n">
-        <v>137.93</v>
+        <v>122.14</v>
       </c>
       <c r="C50" t="n">
-        <v>3.560890502929681</v>
+        <v>2.718262329101563</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>139.5077056884766</v>
+        <v>113.0782775878906</v>
       </c>
       <c r="B51" t="n">
-        <v>137.93</v>
+        <v>115.11</v>
       </c>
       <c r="C51" t="n">
-        <v>1.577705688476556</v>
+        <v>2.031722412109374</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>136.52001953125</v>
+        <v>105.4602813720703</v>
       </c>
       <c r="B52" t="n">
-        <v>137.93</v>
+        <v>105.96</v>
       </c>
       <c r="C52" t="n">
-        <v>1.409980468750007</v>
+        <v>0.4997186279296812</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>132.7335205078125</v>
+        <v>101.9524154663086</v>
       </c>
       <c r="B53" t="n">
-        <v>134.45</v>
+        <v>102.56</v>
       </c>
       <c r="C53" t="n">
-        <v>1.716479492187489</v>
+        <v>0.6075845336914085</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>128.6854400634766</v>
+        <v>100.2477340698242</v>
       </c>
       <c r="B54" t="n">
-        <v>130.08</v>
+        <v>100.63</v>
       </c>
       <c r="C54" t="n">
-        <v>1.39455993652345</v>
+        <v>0.3822659301757767</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>125.2687606811523</v>
+        <v>98.41463470458984</v>
       </c>
       <c r="B55" t="n">
-        <v>124.03</v>
+        <v>98.16</v>
       </c>
       <c r="C55" t="n">
-        <v>1.238760681152343</v>
+        <v>0.2546347045898472</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>132.6513671875</v>
+        <v>100.14697265625</v>
       </c>
       <c r="B56" t="n">
-        <v>124.03</v>
+        <v>101.27</v>
       </c>
       <c r="C56" t="n">
-        <v>8.621367187499999</v>
+        <v>1.123027343749996</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>101.0419235229492</v>
       </c>
       <c r="B57" t="n">
-        <v>122.14</v>
+        <v>101.91</v>
       </c>
       <c r="C57" t="n">
-        <v>122.14</v>
+        <v>0.8680764770507778</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>119.4217376708984</v>
+        <v>102.2031555175781</v>
       </c>
       <c r="B58" t="n">
-        <v>105.96</v>
+        <v>101.27</v>
       </c>
       <c r="C58" t="n">
-        <v>13.46173767089844</v>
+        <v>0.933155517578129</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>113.0782775878906</v>
+        <v>103.1180572509766</v>
       </c>
       <c r="B59" t="n">
-        <v>105.96</v>
+        <v>102.56</v>
       </c>
       <c r="C59" t="n">
-        <v>7.118277587890631</v>
+        <v>0.5580572509765602</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>105.4602813720703</v>
+        <v>103.3856582641602</v>
       </c>
       <c r="B60" t="n">
-        <v>105.96</v>
+        <v>103.9</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4997186279296812</v>
+        <v>0.5143417358398494</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>101.9524154663086</v>
+        <v>103.5511627197266</v>
       </c>
       <c r="B61" t="n">
-        <v>102.56</v>
+        <v>103.9</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6075845336914085</v>
+        <v>0.3488372802734432</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>100.2477340698242</v>
+        <v>105.2109146118164</v>
       </c>
       <c r="B62" t="n">
-        <v>100.63</v>
+        <v>103.23</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3822659301757767</v>
+        <v>1.980914611816402</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>98.41463470458984</v>
+        <v>105.3487167358398</v>
       </c>
       <c r="B63" t="n">
-        <v>100.63</v>
+        <v>105.26</v>
       </c>
       <c r="C63" t="n">
-        <v>2.215365295410152</v>
+        <v>0.08871673583983863</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>100.14697265625</v>
+        <v>105.9741973876953</v>
       </c>
       <c r="B64" t="n">
-        <v>100.63</v>
+        <v>105.26</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4830273437499955</v>
+        <v>0.7141973876953074</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>101.0419235229492</v>
+        <v>106.7170715332031</v>
       </c>
       <c r="B65" t="n">
-        <v>100.63</v>
+        <v>106.67</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4119235229492233</v>
+        <v>0.04707153320312329</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>102.2031555175781</v>
+        <v>107.819221496582</v>
       </c>
       <c r="B66" t="n">
-        <v>101.27</v>
+        <v>108.11</v>
       </c>
       <c r="C66" t="n">
-        <v>0.933155517578129</v>
+        <v>0.2907785034179682</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>103.1180572509766</v>
+        <v>109.2544097900391</v>
       </c>
       <c r="B67" t="n">
-        <v>102.56</v>
+        <v>109.59</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5580572509765602</v>
+        <v>0.3355902099609409</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>103.3856582641602</v>
+        <v>111.6443634033203</v>
       </c>
       <c r="B68" t="n">
-        <v>103.23</v>
+        <v>111.89</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1556582641601523</v>
+        <v>0.2456365966796881</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>103.5511627197266</v>
+        <v>119.4812774658203</v>
       </c>
       <c r="B69" t="n">
-        <v>103.9</v>
+        <v>118.52</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3488372802734432</v>
+        <v>0.9612774658203165</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>105.2109146118164</v>
+        <v>121.4426498413086</v>
       </c>
       <c r="B70" t="n">
-        <v>103.9</v>
+        <v>124.03</v>
       </c>
       <c r="C70" t="n">
-        <v>1.310914611816401</v>
+        <v>2.587350158691407</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>105.3487167358398</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>105.26</v>
+        <v>347.83</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08871673583983863</v>
+        <v>347.83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>105.9741973876953</v>
+        <v>134.5771179199219</v>
       </c>
       <c r="B72" t="n">
-        <v>105.26</v>
+        <v>134.45</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7141973876953074</v>
+        <v>0.1271179199218864</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>106.7170715332031</v>
+        <v>126.5181045532227</v>
       </c>
       <c r="B73" t="n">
-        <v>106.67</v>
+        <v>126.98</v>
       </c>
       <c r="C73" t="n">
-        <v>0.04707153320312329</v>
+        <v>0.4618954467773477</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>107.819221496582</v>
+        <v>120.2188491821289</v>
       </c>
       <c r="B74" t="n">
-        <v>108.11</v>
+        <v>120.3</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2907785034179682</v>
+        <v>0.08115081787109091</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>109.2544097900391</v>
+        <v>117.2243347167969</v>
       </c>
       <c r="B75" t="n">
-        <v>109.59</v>
+        <v>118.52</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3355902099609409</v>
+        <v>1.295665283203121</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111.6443634033203</v>
+        <v>112.9223175048828</v>
       </c>
       <c r="B76" t="n">
-        <v>111.89</v>
+        <v>113.48</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2456365966796881</v>
+        <v>0.5576824951171915</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>119.4812774658203</v>
+        <v>112.5900192260742</v>
       </c>
       <c r="B77" t="n">
-        <v>111.89</v>
+        <v>114.29</v>
       </c>
       <c r="C77" t="n">
-        <v>7.591277465820312</v>
+        <v>1.699980773925788</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>121.4426498413086</v>
+        <v>111.9578323364258</v>
       </c>
       <c r="B78" t="n">
-        <v>118.52</v>
+        <v>111.89</v>
       </c>
       <c r="C78" t="n">
-        <v>2.922649841308598</v>
+        <v>0.06783233642578068</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>119.9872665405273</v>
+        <v>128.6470794677734</v>
       </c>
       <c r="B79" t="n">
-        <v>125</v>
+        <v>131.15</v>
       </c>
       <c r="C79" t="n">
-        <v>5.012733459472656</v>
+        <v>2.502920532226568</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>124.1355743408203</v>
       </c>
       <c r="B80" t="n">
-        <v>125</v>
+        <v>124.03</v>
       </c>
       <c r="C80" t="n">
-        <v>125</v>
+        <v>0.1055743408203114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>124.3825149536133</v>
       </c>
       <c r="B81" t="n">
-        <v>134.45</v>
+        <v>123.08</v>
       </c>
       <c r="C81" t="n">
-        <v>134.45</v>
+        <v>1.302514953613283</v>
       </c>
     </row>
     <row r="82">
@@ -1343,1902 +1343,1561 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>134.45</v>
+        <v>131.15</v>
       </c>
       <c r="C82" t="n">
-        <v>134.45</v>
+        <v>131.15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>134.5771179199219</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>126.98</v>
+        <v>135.59</v>
       </c>
       <c r="C83" t="n">
-        <v>7.597117919921871</v>
+        <v>135.59</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>126.5181045532227</v>
+        <v>114.6703567504883</v>
       </c>
       <c r="B84" t="n">
-        <v>120.3</v>
+        <v>111.89</v>
       </c>
       <c r="C84" t="n">
-        <v>6.218104553222659</v>
+        <v>2.780356750488281</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>120.2188491821289</v>
+        <v>113.4193115234375</v>
       </c>
       <c r="B85" t="n">
-        <v>120.3</v>
+        <v>111.89</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08115081787109091</v>
+        <v>1.529311523437499</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>117.2243347167969</v>
+        <v>112.7618865966797</v>
       </c>
       <c r="B86" t="n">
-        <v>118.52</v>
+        <v>111.89</v>
       </c>
       <c r="C86" t="n">
-        <v>1.295665283203121</v>
+        <v>0.8718865966796869</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112.9223175048828</v>
+        <v>112.7613067626953</v>
       </c>
       <c r="B87" t="n">
-        <v>114.29</v>
+        <v>113.48</v>
       </c>
       <c r="C87" t="n">
-        <v>1.367682495117194</v>
+        <v>0.7186932373046915</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112.5900192260742</v>
+        <v>112.1342391967773</v>
       </c>
       <c r="B88" t="n">
         <v>113.48</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8899807739257852</v>
+        <v>1.34576080322266</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111.9578323364258</v>
+        <v>154.3620452880859</v>
       </c>
       <c r="B89" t="n">
-        <v>111.89</v>
+        <v>155.34</v>
       </c>
       <c r="C89" t="n">
-        <v>0.06783233642578068</v>
+        <v>0.9779547119140659</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>128.6470794677734</v>
+        <v>155.4959259033203</v>
       </c>
       <c r="B90" t="n">
-        <v>123.08</v>
+        <v>155.34</v>
       </c>
       <c r="C90" t="n">
-        <v>5.567079467773439</v>
+        <v>0.1559259033203091</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>124.1355743408203</v>
+        <v>156.5378112792969</v>
       </c>
       <c r="B91" t="n">
-        <v>124.03</v>
+        <v>158.42</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1055743408203114</v>
+        <v>1.882188720703112</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>124.3825149536133</v>
+        <v>156.4153747558594</v>
       </c>
       <c r="B92" t="n">
-        <v>131.15</v>
+        <v>156.86</v>
       </c>
       <c r="C92" t="n">
-        <v>6.767485046386724</v>
+        <v>0.4446252441406386</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>143.5724945068359</v>
       </c>
       <c r="B93" t="n">
-        <v>124.03</v>
+        <v>160</v>
       </c>
       <c r="C93" t="n">
-        <v>124.03</v>
+        <v>16.42750549316406</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>142.1470947265625</v>
       </c>
       <c r="B94" t="n">
-        <v>123.08</v>
+        <v>142.86</v>
       </c>
       <c r="C94" t="n">
-        <v>123.08</v>
+        <v>0.7129052734375136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>114.6703567504883</v>
+        <v>139.5699462890625</v>
       </c>
       <c r="B95" t="n">
-        <v>111.89</v>
+        <v>140.35</v>
       </c>
       <c r="C95" t="n">
-        <v>2.780356750488281</v>
+        <v>0.7800537109374943</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>113.4193115234375</v>
+        <v>137.3866271972656</v>
       </c>
       <c r="B96" t="n">
-        <v>111.89</v>
+        <v>137.93</v>
       </c>
       <c r="C96" t="n">
-        <v>1.529311523437499</v>
+        <v>0.5433728027343818</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112.7618865966797</v>
+        <v>135.9750518798828</v>
       </c>
       <c r="B97" t="n">
-        <v>111.89</v>
+        <v>135.59</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8718865966796869</v>
+        <v>0.3850518798828091</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112.7613067626953</v>
+        <v>135.109619140625</v>
       </c>
       <c r="B98" t="n">
-        <v>111.89</v>
+        <v>135.59</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8713067626953119</v>
+        <v>0.4803808593750034</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112.1342391967773</v>
+        <v>134.5585632324219</v>
       </c>
       <c r="B99" t="n">
-        <v>111.89</v>
+        <v>135.59</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2442391967773432</v>
+        <v>1.031436767578128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>154.3620452880859</v>
+        <v>133.2364959716797</v>
       </c>
       <c r="B100" t="n">
-        <v>155.34</v>
+        <v>134.45</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9779547119140659</v>
+        <v>1.213504028320301</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>155.4959259033203</v>
+        <v>124.7176742553711</v>
       </c>
       <c r="B101" t="n">
-        <v>155.34</v>
+        <v>146.79</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1559259033203091</v>
+        <v>22.0723257446289</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>156.5378112792969</v>
+        <v>127.2735900878906</v>
       </c>
       <c r="B102" t="n">
-        <v>155.34</v>
+        <v>280.7</v>
       </c>
       <c r="C102" t="n">
-        <v>1.197811279296872</v>
+        <v>153.4264099121094</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>156.4153747558594</v>
+        <v>122.1438217163086</v>
       </c>
       <c r="B103" t="n">
-        <v>155.34</v>
+        <v>121.21</v>
       </c>
       <c r="C103" t="n">
-        <v>1.075374755859372</v>
+        <v>0.9338217163086</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>167.1445007324219</v>
+        <v>121.2415618896484</v>
       </c>
       <c r="B104" t="n">
-        <v>156.86</v>
+        <v>120.3</v>
       </c>
       <c r="C104" t="n">
-        <v>10.28450073242186</v>
+        <v>0.9415618896484403</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>121.5954360961914</v>
       </c>
       <c r="B105" t="n">
-        <v>142.86</v>
+        <v>120.3</v>
       </c>
       <c r="C105" t="n">
-        <v>142.86</v>
+        <v>1.295436096191409</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>143.5724945068359</v>
+        <v>120.7998046875</v>
       </c>
       <c r="B106" t="n">
-        <v>140.35</v>
+        <v>122.14</v>
       </c>
       <c r="C106" t="n">
-        <v>3.222494506835943</v>
+        <v>1.340195312500001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>142.1470947265625</v>
+        <v>117.4254302978516</v>
       </c>
       <c r="B107" t="n">
-        <v>140.35</v>
+        <v>121.21</v>
       </c>
       <c r="C107" t="n">
-        <v>1.797094726562506</v>
+        <v>3.784569702148431</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>139.5699462890625</v>
+        <v>131.1286315917969</v>
       </c>
       <c r="B108" t="n">
-        <v>140.35</v>
+        <v>133.33</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7800537109374943</v>
+        <v>2.201368408203138</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>137.3866271972656</v>
+        <v>125.1464691162109</v>
       </c>
       <c r="B109" t="n">
-        <v>137.93</v>
+        <v>128</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5433728027343818</v>
+        <v>2.853530883789062</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>135.9750518798828</v>
+        <v>118.2104034423828</v>
       </c>
       <c r="B110" t="n">
-        <v>135.59</v>
+        <v>118.52</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3850518798828091</v>
+        <v>0.3095965576171835</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>135.109619140625</v>
+        <v>115.5183029174805</v>
       </c>
       <c r="B111" t="n">
-        <v>135.59</v>
+        <v>115.94</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4803808593750034</v>
+        <v>0.421697082519529</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>134.5585632324219</v>
+        <v>113.6863708496094</v>
       </c>
       <c r="B112" t="n">
-        <v>135.59</v>
+        <v>111.89</v>
       </c>
       <c r="C112" t="n">
-        <v>1.031436767578128</v>
+        <v>1.796370849609374</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>133.2364959716797</v>
+        <v>147.1822509765625</v>
       </c>
       <c r="B113" t="n">
-        <v>135.59</v>
+        <v>146.79</v>
       </c>
       <c r="C113" t="n">
-        <v>2.353504028320316</v>
+        <v>0.392250976562508</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>124.7176742553711</v>
+        <v>145.8034820556641</v>
       </c>
       <c r="B114" t="n">
-        <v>135.59</v>
+        <v>146.79</v>
       </c>
       <c r="C114" t="n">
-        <v>10.87232574462891</v>
+        <v>0.9865179443359295</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>126.3671875</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>134.45</v>
+        <v>146.79</v>
       </c>
       <c r="C115" t="n">
-        <v>8.082812499999989</v>
+        <v>146.79</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>127.2735900878906</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>121.21</v>
+        <v>134.45</v>
       </c>
       <c r="C116" t="n">
-        <v>6.063590087890631</v>
+        <v>134.45</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>122.9815826416016</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>120.3</v>
+        <v>117.65</v>
       </c>
       <c r="C117" t="n">
-        <v>2.681582641601565</v>
+        <v>117.65</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>122.1438217163086</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>120.3</v>
+        <v>103.23</v>
       </c>
       <c r="C118" t="n">
-        <v>1.843821716308597</v>
+        <v>103.23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>121.2415618896484</v>
+        <v>98.42574310302734</v>
       </c>
       <c r="B119" t="n">
-        <v>120.3</v>
+        <v>101.91</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9415618896484403</v>
+        <v>3.484256896972653</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>121.5954360961914</v>
+        <v>102.4201736450195</v>
       </c>
       <c r="B120" t="n">
-        <v>121.21</v>
+        <v>101.91</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3854360961914125</v>
+        <v>0.5101736450195347</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>120.7998046875</v>
+        <v>106.2319946289062</v>
       </c>
       <c r="B121" t="n">
-        <v>120.3</v>
+        <v>105.96</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4998046875000028</v>
+        <v>0.2719946289062563</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>117.4254302978516</v>
+        <v>110.821907043457</v>
       </c>
       <c r="B122" t="n">
-        <v>120.3</v>
+        <v>108.11</v>
       </c>
       <c r="C122" t="n">
-        <v>2.874569702148435</v>
+        <v>2.711907043457032</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>131.1286315917969</v>
+        <v>119.4775772094727</v>
       </c>
       <c r="B123" t="n">
-        <v>118.52</v>
+        <v>115.11</v>
       </c>
       <c r="C123" t="n">
-        <v>12.60863159179688</v>
+        <v>4.367577209472657</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>125.1464691162109</v>
+        <v>119.6519393920898</v>
       </c>
       <c r="B124" t="n">
         <v>118.52</v>
       </c>
       <c r="C124" t="n">
-        <v>6.626469116210941</v>
+        <v>1.131939392089848</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>118.2104034423828</v>
+        <v>121.8737716674805</v>
       </c>
       <c r="B125" t="n">
-        <v>118.52</v>
+        <v>121.21</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3095965576171835</v>
+        <v>0.663771667480475</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>115.5183029174805</v>
+        <v>125.7830581665039</v>
       </c>
       <c r="B126" t="n">
-        <v>115.94</v>
+        <v>125.98</v>
       </c>
       <c r="C126" t="n">
-        <v>0.421697082519529</v>
+        <v>0.1969418334960977</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>113.6863708496094</v>
+        <v>128.8566436767578</v>
       </c>
       <c r="B127" t="n">
-        <v>111.89</v>
+        <v>129.03</v>
       </c>
       <c r="C127" t="n">
-        <v>1.796370849609374</v>
+        <v>0.1733563232421886</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>113.3893585205078</v>
+        <v>130.2051086425781</v>
       </c>
       <c r="B128" t="n">
-        <v>111.89</v>
+        <v>130.08</v>
       </c>
       <c r="C128" t="n">
-        <v>1.499358520507812</v>
+        <v>0.1251086425781125</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>114.3494491577148</v>
+        <v>129.8405609130859</v>
       </c>
       <c r="B129" t="n">
-        <v>111.89</v>
+        <v>130.08</v>
       </c>
       <c r="C129" t="n">
-        <v>2.459449157714843</v>
+        <v>0.239439086914075</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>155.4782257080078</v>
+        <v>129.3138885498047</v>
       </c>
       <c r="B130" t="n">
-        <v>146.79</v>
+        <v>129.03</v>
       </c>
       <c r="C130" t="n">
-        <v>8.68822570800782</v>
+        <v>0.2838885498046864</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>147.1822509765625</v>
+        <v>130.0917205810547</v>
       </c>
       <c r="B131" t="n">
-        <v>146.79</v>
+        <v>130.08</v>
       </c>
       <c r="C131" t="n">
-        <v>0.392250976562508</v>
+        <v>0.01172058105467499</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>145.8034820556641</v>
+        <v>130.5295257568359</v>
       </c>
       <c r="B132" t="n">
-        <v>146.79</v>
+        <v>131.15</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9865179443359295</v>
+        <v>0.6204742431640682</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>128.3120727539062</v>
       </c>
       <c r="B133" t="n">
-        <v>134.45</v>
+        <v>129.03</v>
       </c>
       <c r="C133" t="n">
-        <v>134.45</v>
+        <v>0.7179272460937511</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>126.0159149169922</v>
       </c>
       <c r="B134" t="n">
-        <v>134.45</v>
+        <v>126.98</v>
       </c>
       <c r="C134" t="n">
-        <v>134.45</v>
+        <v>0.9640850830078165</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>124.7551651000977</v>
       </c>
       <c r="B135" t="n">
-        <v>117.65</v>
+        <v>125</v>
       </c>
       <c r="C135" t="n">
-        <v>117.65</v>
+        <v>0.2448348999023438</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>121.7748794555664</v>
       </c>
       <c r="B136" t="n">
-        <v>117.65</v>
+        <v>123.08</v>
       </c>
       <c r="C136" t="n">
-        <v>117.65</v>
+        <v>1.305120544433592</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>118.3620071411133</v>
       </c>
       <c r="B137" t="n">
-        <v>103.23</v>
+        <v>117.65</v>
       </c>
       <c r="C137" t="n">
-        <v>103.23</v>
+        <v>0.7120071411132756</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>99.75057983398438</v>
+        <v>111.3042678833008</v>
       </c>
       <c r="B138" t="n">
-        <v>102.56</v>
+        <v>113.48</v>
       </c>
       <c r="C138" t="n">
-        <v>2.809420166015627</v>
+        <v>2.175732116699223</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>98.42574310302734</v>
+        <v>123.5804977416992</v>
       </c>
       <c r="B139" t="n">
-        <v>101.91</v>
+        <v>166.67</v>
       </c>
       <c r="C139" t="n">
-        <v>3.484256896972653</v>
+        <v>43.08950225830077</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>100.4948883056641</v>
+        <v>121.2578735351562</v>
       </c>
       <c r="B140" t="n">
-        <v>101.91</v>
+        <v>246.15</v>
       </c>
       <c r="C140" t="n">
-        <v>1.415111694335934</v>
+        <v>124.8921264648438</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>102.4201736450195</v>
+        <v>116.769401550293</v>
       </c>
       <c r="B141" t="n">
-        <v>102.56</v>
+        <v>115.94</v>
       </c>
       <c r="C141" t="n">
-        <v>0.139826354980471</v>
+        <v>0.829401550292971</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>106.2319946289062</v>
+        <v>108.457763671875</v>
       </c>
       <c r="B142" t="n">
-        <v>105.96</v>
+        <v>111.89</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2719946289062563</v>
+        <v>3.432236328125001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>110.821907043457</v>
+        <v>101.1543197631836</v>
       </c>
       <c r="B143" t="n">
-        <v>108.11</v>
+        <v>103.23</v>
       </c>
       <c r="C143" t="n">
-        <v>2.711907043457032</v>
+        <v>2.07568023681641</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>119.4775772094727</v>
+        <v>100.564453125</v>
       </c>
       <c r="B144" t="n">
-        <v>115.11</v>
+        <v>100</v>
       </c>
       <c r="C144" t="n">
-        <v>4.367577209472657</v>
+        <v>0.564453125</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>119.6519393920898</v>
+        <v>100.711181640625</v>
       </c>
       <c r="B145" t="n">
-        <v>118.52</v>
+        <v>100.63</v>
       </c>
       <c r="C145" t="n">
-        <v>1.131939392089848</v>
+        <v>0.08118164062500455</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>121.8737716674805</v>
+        <v>100.8357543945312</v>
       </c>
       <c r="B146" t="n">
-        <v>121.21</v>
+        <v>101.27</v>
       </c>
       <c r="C146" t="n">
-        <v>0.663771667480475</v>
+        <v>0.434245605468746</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>125.7830581665039</v>
+        <v>99.54892730712891</v>
       </c>
       <c r="B147" t="n">
-        <v>125.98</v>
+        <v>99.38</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1969418334960977</v>
+        <v>0.1689273071289108</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>128.8566436767578</v>
+        <v>146.0902099609375</v>
       </c>
       <c r="B148" t="n">
-        <v>129.03</v>
+        <v>155.34</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1733563232421886</v>
+        <v>9.249790039062503</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>130.2051086425781</v>
+        <v>145.2857513427734</v>
       </c>
       <c r="B149" t="n">
-        <v>129.03</v>
+        <v>145.45</v>
       </c>
       <c r="C149" t="n">
-        <v>1.175108642578124</v>
+        <v>0.1642486572265511</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>129.8405609130859</v>
+        <v>146.9859619140625</v>
       </c>
       <c r="B150" t="n">
-        <v>130.08</v>
+        <v>146.79</v>
       </c>
       <c r="C150" t="n">
-        <v>0.239439086914075</v>
+        <v>0.195961914062508</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>129.3138885498047</v>
+        <v>151.6090393066406</v>
       </c>
       <c r="B151" t="n">
-        <v>130.08</v>
+        <v>153.85</v>
       </c>
       <c r="C151" t="n">
-        <v>0.766111450195325</v>
+        <v>2.240960693359369</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>130.0917205810547</v>
+        <v>107.6607208251953</v>
       </c>
       <c r="B152" t="n">
-        <v>130.08</v>
+        <v>106.67</v>
       </c>
       <c r="C152" t="n">
-        <v>0.01172058105467499</v>
+        <v>0.9907208251953108</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>130.5295257568359</v>
+        <v>104.7326507568359</v>
       </c>
       <c r="B153" t="n">
-        <v>129.03</v>
+        <v>107.38</v>
       </c>
       <c r="C153" t="n">
-        <v>1.499525756835936</v>
+        <v>2.647349243164058</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>128.3120727539062</v>
+        <v>102.2431106567383</v>
       </c>
       <c r="B154" t="n">
-        <v>129.03</v>
+        <v>101.91</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7179272460937511</v>
+        <v>0.3331106567382847</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>126.0159149169922</v>
+        <v>100.1436080932617</v>
       </c>
       <c r="B155" t="n">
-        <v>126.98</v>
+        <v>100</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9640850830078165</v>
+        <v>0.1436080932617188</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>124.7551651000977</v>
+        <v>101.2032241821289</v>
       </c>
       <c r="B156" t="n">
-        <v>125</v>
+        <v>101.91</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2448348999023438</v>
+        <v>0.7067758178710903</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>121.7748794555664</v>
+        <v>102.0663681030273</v>
       </c>
       <c r="B157" t="n">
-        <v>123.08</v>
+        <v>102.56</v>
       </c>
       <c r="C157" t="n">
-        <v>1.305120544433592</v>
+        <v>0.4936318969726585</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>118.3620071411133</v>
+        <v>101.8315124511719</v>
       </c>
       <c r="B158" t="n">
-        <v>117.65</v>
+        <v>101.91</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7120071411132756</v>
+        <v>0.07848754882812159</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111.3042678833008</v>
+        <v>102.5117797851562</v>
       </c>
       <c r="B159" t="n">
-        <v>117.65</v>
+        <v>101.91</v>
       </c>
       <c r="C159" t="n">
-        <v>6.345732116699224</v>
+        <v>0.6017797851562534</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>106.5971527099609</v>
+        <v>102.1862487792969</v>
       </c>
       <c r="B160" t="n">
-        <v>117.65</v>
+        <v>101.91</v>
       </c>
       <c r="C160" t="n">
-        <v>11.05284729003907</v>
+        <v>0.2762487792968784</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>123.5804977416992</v>
+        <v>101.3689346313477</v>
       </c>
       <c r="B161" t="n">
-        <v>115.94</v>
+        <v>100.63</v>
       </c>
       <c r="C161" t="n">
-        <v>7.640497741699221</v>
+        <v>0.7389346313476608</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>121.2578735351562</v>
+        <v>100.5493392944336</v>
       </c>
       <c r="B162" t="n">
-        <v>115.94</v>
+        <v>100.63</v>
       </c>
       <c r="C162" t="n">
-        <v>5.317873535156252</v>
+        <v>0.0806607055664017</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>116.769401550293</v>
+        <v>99.83097839355469</v>
       </c>
       <c r="B163" t="n">
-        <v>115.94</v>
+        <v>99.38</v>
       </c>
       <c r="C163" t="n">
-        <v>0.829401550292971</v>
+        <v>0.450978393554692</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>108.457763671875</v>
+        <v>100.1689987182617</v>
       </c>
       <c r="B164" t="n">
-        <v>111.89</v>
+        <v>100</v>
       </c>
       <c r="C164" t="n">
-        <v>3.432236328125001</v>
+        <v>0.1689987182617188</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>101.1543197631836</v>
+        <v>100.7470245361328</v>
       </c>
       <c r="B165" t="n">
-        <v>103.23</v>
+        <v>100.63</v>
       </c>
       <c r="C165" t="n">
-        <v>2.07568023681641</v>
+        <v>0.117024536132817</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>100.564453125</v>
+        <v>104.7801666259766</v>
       </c>
       <c r="B166" t="n">
-        <v>101.27</v>
+        <v>107.38</v>
       </c>
       <c r="C166" t="n">
-        <v>0.705546874999996</v>
+        <v>2.599833374023433</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>100.711181640625</v>
+        <v>104.4029846191406</v>
       </c>
       <c r="B167" t="n">
-        <v>100.63</v>
+        <v>104.58</v>
       </c>
       <c r="C167" t="n">
-        <v>0.08118164062500455</v>
+        <v>0.1770153808593733</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>100.8357543945312</v>
+        <v>103.745002746582</v>
       </c>
       <c r="B168" t="n">
-        <v>100</v>
+        <v>104.58</v>
       </c>
       <c r="C168" t="n">
-        <v>0.83575439453125</v>
+        <v>0.834997253417967</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>99.54892730712891</v>
+        <v>103.1226425170898</v>
       </c>
       <c r="B169" t="n">
-        <v>99.38</v>
+        <v>103.9</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1689273071289108</v>
+        <v>0.7773574829101619</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>146.0902099609375</v>
+        <v>102.7227249145508</v>
       </c>
       <c r="B170" t="n">
-        <v>145.45</v>
+        <v>103.9</v>
       </c>
       <c r="C170" t="n">
-        <v>0.6402099609375114</v>
+        <v>1.177275085449224</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>145.2857513427734</v>
+        <v>100.9494400024414</v>
       </c>
       <c r="B171" t="n">
-        <v>149.53</v>
+        <v>103.9</v>
       </c>
       <c r="C171" t="n">
-        <v>4.244248657226564</v>
+        <v>2.950559997558599</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>146.9859619140625</v>
+        <v>98.38918304443359</v>
       </c>
       <c r="B172" t="n">
-        <v>153.85</v>
+        <v>100.63</v>
       </c>
       <c r="C172" t="n">
-        <v>6.864038085937494</v>
+        <v>2.240816955566402</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>151.6090393066406</v>
+        <v>123.2010726928711</v>
       </c>
       <c r="B173" t="n">
-        <v>149.53</v>
+        <v>124.03</v>
       </c>
       <c r="C173" t="n">
-        <v>2.079039306640624</v>
+        <v>0.8289273071289074</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>152.9251708984375</v>
+        <v>118.1354522705078</v>
       </c>
       <c r="B174" t="n">
-        <v>149.53</v>
+        <v>119.4</v>
       </c>
       <c r="C174" t="n">
-        <v>3.395170898437499</v>
+        <v>1.264547729492193</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>116.927001953125</v>
       </c>
       <c r="B175" t="n">
-        <v>106.67</v>
+        <v>117.65</v>
       </c>
       <c r="C175" t="n">
-        <v>106.67</v>
+        <v>0.7229980468750057</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>107.6607208251953</v>
+        <v>115.7805709838867</v>
       </c>
       <c r="B176" t="n">
-        <v>106.67</v>
+        <v>115.94</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9907208251953108</v>
+        <v>0.159429016113279</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>104.7326507568359</v>
+        <v>113.5742111206055</v>
       </c>
       <c r="B177" t="n">
-        <v>103.23</v>
+        <v>115.11</v>
       </c>
       <c r="C177" t="n">
-        <v>1.502650756835934</v>
+        <v>1.535788879394531</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>102.2431106567383</v>
+        <v>112.3470764160156</v>
       </c>
       <c r="B178" t="n">
-        <v>103.23</v>
+        <v>112.68</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9868893432617227</v>
+        <v>0.3329235839843818</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>100.1436080932617</v>
+        <v>110.8764877319336</v>
       </c>
       <c r="B179" t="n">
-        <v>102.56</v>
+        <v>108.84</v>
       </c>
       <c r="C179" t="n">
-        <v>2.416391906738284</v>
+        <v>2.03648773193359</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>101.2032241821289</v>
+        <v>107.632568359375</v>
       </c>
       <c r="B180" t="n">
-        <v>102.56</v>
+        <v>103.9</v>
       </c>
       <c r="C180" t="n">
-        <v>1.356775817871096</v>
+        <v>3.732568359374994</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>102.0663681030273</v>
+        <v>134.5341186523438</v>
       </c>
       <c r="B181" t="n">
-        <v>101.91</v>
+        <v>134.45</v>
       </c>
       <c r="C181" t="n">
-        <v>0.1563681030273472</v>
+        <v>0.08411865234376137</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>101.8315124511719</v>
+        <v>133.3784637451172</v>
       </c>
       <c r="B182" t="n">
-        <v>101.91</v>
+        <v>133.33</v>
       </c>
       <c r="C182" t="n">
-        <v>0.07848754882812159</v>
+        <v>0.04846374511717499</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>102.5117797851562</v>
+        <v>131.2413024902344</v>
       </c>
       <c r="B183" t="n">
-        <v>101.91</v>
+        <v>132.23</v>
       </c>
       <c r="C183" t="n">
-        <v>0.6017797851562534</v>
+        <v>0.9886975097656148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>102.1862487792969</v>
+        <v>129.5574340820312</v>
       </c>
       <c r="B184" t="n">
-        <v>101.91</v>
+        <v>130.08</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2762487792968784</v>
+        <v>0.5225659179687625</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>101.3689346313477</v>
+        <v>128.3845367431641</v>
       </c>
       <c r="B185" t="n">
-        <v>100.63</v>
+        <v>128</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7389346313476608</v>
+        <v>0.3845367431640625</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>100.5493392944336</v>
+        <v>127.8821716308594</v>
       </c>
       <c r="B186" t="n">
-        <v>100.63</v>
+        <v>126.98</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0806607055664017</v>
+        <v>0.902171630859371</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>99.83097839355469</v>
+        <v>127.1656494140625</v>
       </c>
       <c r="B187" t="n">
-        <v>100.63</v>
+        <v>128</v>
       </c>
       <c r="C187" t="n">
-        <v>0.799021606445308</v>
+        <v>0.8343505859375</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>100.1689987182617</v>
+        <v>125.418342590332</v>
       </c>
       <c r="B188" t="n">
-        <v>100</v>
+        <v>125.98</v>
       </c>
       <c r="C188" t="n">
-        <v>0.1689987182617188</v>
+        <v>0.5616574096679727</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>100.7470245361328</v>
+        <v>125.0449676513672</v>
       </c>
       <c r="B189" t="n">
-        <v>99.38</v>
+        <v>129.03</v>
       </c>
       <c r="C189" t="n">
-        <v>1.367024536132817</v>
+        <v>3.985032348632814</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>104.7801666259766</v>
+        <v>126.0618057250977</v>
       </c>
       <c r="B190" t="n">
-        <v>104.58</v>
+        <v>125.98</v>
       </c>
       <c r="C190" t="n">
-        <v>0.2001666259765642</v>
+        <v>0.08180572509765227</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>104.4029846191406</v>
+        <v>125.3606262207031</v>
       </c>
       <c r="B191" t="n">
-        <v>104.58</v>
+        <v>125</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1770153808593733</v>
+        <v>0.360626220703125</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>103.745002746582</v>
+        <v>125.8888092041016</v>
       </c>
       <c r="B192" t="n">
-        <v>104.58</v>
+        <v>125</v>
       </c>
       <c r="C192" t="n">
-        <v>0.834997253417967</v>
+        <v>0.8888092041015625</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>103.1226425170898</v>
+        <v>127.2675170898438</v>
       </c>
       <c r="B193" t="n">
-        <v>103.9</v>
+        <v>125.98</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7773574829101619</v>
+        <v>1.287517089843746</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>102.7227249145508</v>
+        <v>126.5913391113281</v>
       </c>
       <c r="B194" t="n">
-        <v>103.9</v>
+        <v>125.98</v>
       </c>
       <c r="C194" t="n">
-        <v>1.177275085449224</v>
+        <v>0.611339111328121</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>100.9494400024414</v>
+        <v>125.3319091796875</v>
       </c>
       <c r="B195" t="n">
-        <v>103.9</v>
+        <v>125</v>
       </c>
       <c r="C195" t="n">
-        <v>2.950559997558599</v>
+        <v>0.3319091796875</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>98.38918304443359</v>
+        <v>124.9226379394531</v>
       </c>
       <c r="B196" t="n">
-        <v>100.63</v>
+        <v>125</v>
       </c>
       <c r="C196" t="n">
-        <v>2.240816955566402</v>
+        <v>0.077362060546875</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>123.2010726928711</v>
+        <v>125.0268783569336</v>
       </c>
       <c r="B197" t="n">
-        <v>117.65</v>
+        <v>125</v>
       </c>
       <c r="C197" t="n">
-        <v>5.551072692871088</v>
+        <v>0.02687835693359375</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>118.1354522705078</v>
+        <v>125.157341003418</v>
       </c>
       <c r="B198" t="n">
-        <v>117.65</v>
+        <v>125</v>
       </c>
       <c r="C198" t="n">
-        <v>0.4854522705078068</v>
+        <v>0.1573410034179688</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>116.927001953125</v>
+        <v>124.7716751098633</v>
       </c>
       <c r="B199" t="n">
-        <v>117.65</v>
+        <v>125.98</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7229980468750057</v>
+        <v>1.208324890136723</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>115.7671356201172</v>
+        <v>120.8488693237305</v>
       </c>
       <c r="B200" t="n">
-        <v>115.94</v>
+        <v>121.21</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1728643798828102</v>
+        <v>0.361130676269525</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>115.7805709838867</v>
+        <v>110.956916809082</v>
       </c>
       <c r="B201" t="n">
-        <v>115.94</v>
+        <v>124.03</v>
       </c>
       <c r="C201" t="n">
-        <v>0.159429016113279</v>
+        <v>13.07308319091797</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>113.5742111206055</v>
+        <v>110.6282806396484</v>
       </c>
       <c r="B202" t="n">
-        <v>115.11</v>
+        <v>111.11</v>
       </c>
       <c r="C202" t="n">
-        <v>1.535788879394531</v>
+        <v>0.4817193603515619</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>112.3470764160156</v>
+        <v>110.6452941894531</v>
       </c>
       <c r="B203" t="n">
-        <v>112.68</v>
+        <v>110.34</v>
       </c>
       <c r="C203" t="n">
-        <v>0.3329235839843818</v>
+        <v>0.3052941894531216</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>110.8764877319336</v>
+        <v>110.2468338012695</v>
       </c>
       <c r="B204" t="n">
-        <v>107.38</v>
+        <v>109.59</v>
       </c>
       <c r="C204" t="n">
-        <v>3.496487731933598</v>
+        <v>0.6568338012695278</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0</v>
+        <v>109.237434387207</v>
       </c>
       <c r="B205" t="n">
-        <v>134.45</v>
+        <v>108.11</v>
       </c>
       <c r="C205" t="n">
-        <v>134.45</v>
+        <v>1.127434387207032</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>135.7530517578125</v>
+        <v>110.9424209594727</v>
       </c>
       <c r="B206" t="n">
-        <v>134.45</v>
+        <v>111.11</v>
       </c>
       <c r="C206" t="n">
-        <v>1.303051757812511</v>
+        <v>0.1675790405273432</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>134.5341186523438</v>
+        <v>111.6982192993164</v>
       </c>
       <c r="B207" t="n">
-        <v>134.45</v>
+        <v>111.11</v>
       </c>
       <c r="C207" t="n">
-        <v>0.08411865234376137</v>
+        <v>0.5882192993164068</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>133.3784637451172</v>
+        <v>111.6503219604492</v>
       </c>
       <c r="B208" t="n">
-        <v>133.33</v>
+        <v>111.11</v>
       </c>
       <c r="C208" t="n">
-        <v>0.04846374511717499</v>
+        <v>0.5403219604492193</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>131.2413024902344</v>
+        <v>0</v>
       </c>
       <c r="B209" t="n">
-        <v>132.23</v>
+        <v>207.79</v>
       </c>
       <c r="C209" t="n">
-        <v>0.9886975097656148</v>
+        <v>207.79</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>129.5574340820312</v>
+        <v>0</v>
       </c>
       <c r="B210" t="n">
-        <v>130.08</v>
+        <v>134.45</v>
       </c>
       <c r="C210" t="n">
-        <v>0.5225659179687625</v>
+        <v>134.45</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>128.3845367431641</v>
+        <v>145.8082122802734</v>
       </c>
       <c r="B211" t="n">
-        <v>128</v>
+        <v>145.45</v>
       </c>
       <c r="C211" t="n">
-        <v>0.3845367431640625</v>
+        <v>0.3582122802734489</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>127.8821716308594</v>
+        <v>145.3313751220703</v>
       </c>
       <c r="B212" t="n">
-        <v>128</v>
+        <v>144.14</v>
       </c>
       <c r="C212" t="n">
-        <v>0.117828369140625</v>
+        <v>1.191375122070326</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>127.1656494140625</v>
+        <v>145.0314178466797</v>
       </c>
       <c r="B213" t="n">
-        <v>128</v>
+        <v>144.14</v>
       </c>
       <c r="C213" t="n">
-        <v>0.8343505859375</v>
+        <v>0.8914178466797011</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>125.418342590332</v>
+        <v>143.7177886962891</v>
       </c>
       <c r="B214" t="n">
-        <v>126.98</v>
+        <v>144.14</v>
       </c>
       <c r="C214" t="n">
-        <v>1.561657409667973</v>
+        <v>0.4222113037109239</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>125.0449676513672</v>
+        <v>140.5153045654297</v>
       </c>
       <c r="B215" t="n">
-        <v>125.98</v>
+        <v>141.59</v>
       </c>
       <c r="C215" t="n">
-        <v>0.9350323486328165</v>
+        <v>1.074695434570316</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>126.0618057250977</v>
+        <v>0</v>
       </c>
       <c r="B216" t="n">
-        <v>125.98</v>
+        <v>96.39</v>
       </c>
       <c r="C216" t="n">
-        <v>0.08180572509765227</v>
+        <v>96.39</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>125.3606262207031</v>
+        <v>111.2997589111328</v>
       </c>
       <c r="B217" t="n">
-        <v>125.98</v>
+        <v>116.79</v>
       </c>
       <c r="C217" t="n">
-        <v>0.619373779296879</v>
+        <v>5.490241088867194</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>125.8888092041016</v>
+        <v>110.4897994995117</v>
       </c>
       <c r="B218" t="n">
-        <v>125.98</v>
+        <v>110.34</v>
       </c>
       <c r="C218" t="n">
-        <v>0.09119079589844148</v>
+        <v>0.1497994995117153</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>127.2675170898438</v>
+        <v>109.4197158813477</v>
       </c>
       <c r="B219" t="n">
-        <v>125</v>
+        <v>108.11</v>
       </c>
       <c r="C219" t="n">
-        <v>2.26751708984375</v>
+        <v>1.309715881347657</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>126.5913391113281</v>
+        <v>107.3559112548828</v>
       </c>
       <c r="B220" t="n">
-        <v>125</v>
+        <v>106.67</v>
       </c>
       <c r="C220" t="n">
-        <v>1.591339111328125</v>
+        <v>0.6859112548828108</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>125.3319091796875</v>
+        <v>105.5942306518555</v>
       </c>
       <c r="B221" t="n">
-        <v>125</v>
+        <v>105.26</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3319091796875</v>
+        <v>0.3342306518554636</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>124.9226379394531</v>
+        <v>106.1718673706055</v>
       </c>
       <c r="B222" t="n">
-        <v>125</v>
+        <v>105.96</v>
       </c>
       <c r="C222" t="n">
-        <v>0.077362060546875</v>
+        <v>0.211867370605475</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>125.0268783569336</v>
+        <v>109.9003601074219</v>
       </c>
       <c r="B223" t="n">
-        <v>125</v>
+        <v>111.11</v>
       </c>
       <c r="C223" t="n">
-        <v>0.02687835693359375</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>125.157341003418</v>
-      </c>
-      <c r="B224" t="n">
-        <v>125</v>
-      </c>
-      <c r="C224" t="n">
-        <v>0.1573410034179688</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>124.7716751098633</v>
-      </c>
-      <c r="B225" t="n">
-        <v>125</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0.2283248901367188</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>120.8488693237305</v>
-      </c>
-      <c r="B226" t="n">
-        <v>121.21</v>
-      </c>
-      <c r="C226" t="n">
-        <v>0.361130676269525</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>110.956916809082</v>
-      </c>
-      <c r="B227" t="n">
-        <v>110.34</v>
-      </c>
-      <c r="C227" t="n">
-        <v>0.6169168090820278</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>110.6282806396484</v>
-      </c>
-      <c r="B228" t="n">
-        <v>110.34</v>
-      </c>
-      <c r="C228" t="n">
-        <v>0.2882806396484341</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>110.6452941894531</v>
-      </c>
-      <c r="B229" t="n">
-        <v>110.34</v>
-      </c>
-      <c r="C229" t="n">
-        <v>0.3052941894531216</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>110.2468338012695</v>
-      </c>
-      <c r="B230" t="n">
-        <v>110.34</v>
-      </c>
-      <c r="C230" t="n">
-        <v>0.09316619873047216</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>109.237434387207</v>
-      </c>
-      <c r="B231" t="n">
-        <v>110.34</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1.102565612792972</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>110.9424209594727</v>
-      </c>
-      <c r="B232" t="n">
-        <v>110.34</v>
-      </c>
-      <c r="C232" t="n">
-        <v>0.6024209594726528</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>111.6982192993164</v>
-      </c>
-      <c r="B233" t="n">
-        <v>110.34</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1.358219299316403</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>111.6503219604492</v>
-      </c>
-      <c r="B234" t="n">
-        <v>111.11</v>
-      </c>
-      <c r="C234" t="n">
-        <v>0.5403219604492193</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>110.6676712036133</v>
-      </c>
-      <c r="B235" t="n">
-        <v>111.11</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0.4423287963867182</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>0</v>
-      </c>
-      <c r="B236" t="n">
-        <v>110.34</v>
-      </c>
-      <c r="C236" t="n">
-        <v>110.34</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>0</v>
-      </c>
-      <c r="B237" t="n">
-        <v>145.45</v>
-      </c>
-      <c r="C237" t="n">
-        <v>145.45</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>0</v>
-      </c>
-      <c r="B238" t="n">
-        <v>145.45</v>
-      </c>
-      <c r="C238" t="n">
-        <v>145.45</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>145.8082122802734</v>
-      </c>
-      <c r="B239" t="n">
-        <v>144.14</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1.668212280273451</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>145.3313751220703</v>
-      </c>
-      <c r="B240" t="n">
-        <v>144.14</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1.191375122070326</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>145.0314178466797</v>
-      </c>
-      <c r="B241" t="n">
-        <v>144.14</v>
-      </c>
-      <c r="C241" t="n">
-        <v>0.8914178466797011</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>143.7177886962891</v>
-      </c>
-      <c r="B242" t="n">
-        <v>144.14</v>
-      </c>
-      <c r="C242" t="n">
-        <v>0.4222113037109239</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>140.5153045654297</v>
-      </c>
-      <c r="B243" t="n">
-        <v>141.59</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1.074695434570316</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>136.6212768554688</v>
-      </c>
-      <c r="B244" t="n">
-        <v>135.59</v>
-      </c>
-      <c r="C244" t="n">
-        <v>1.031276855468747</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>0</v>
-      </c>
-      <c r="B245" t="n">
-        <v>125</v>
-      </c>
-      <c r="C245" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>0</v>
-      </c>
-      <c r="B246" t="n">
-        <v>96.39</v>
-      </c>
-      <c r="C246" t="n">
-        <v>96.39</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>111.2997589111328</v>
-      </c>
-      <c r="B247" t="n">
-        <v>108.11</v>
-      </c>
-      <c r="C247" t="n">
-        <v>3.189758911132813</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>110.4897994995117</v>
-      </c>
-      <c r="B248" t="n">
-        <v>108.11</v>
-      </c>
-      <c r="C248" t="n">
-        <v>2.379799499511719</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>109.4197158813477</v>
-      </c>
-      <c r="B249" t="n">
-        <v>110.34</v>
-      </c>
-      <c r="C249" t="n">
-        <v>0.9202841186523472</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>107.3559112548828</v>
-      </c>
-      <c r="B250" t="n">
-        <v>108.11</v>
-      </c>
-      <c r="C250" t="n">
-        <v>0.7540887451171869</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>105.5942306518555</v>
-      </c>
-      <c r="B251" t="n">
-        <v>106.67</v>
-      </c>
-      <c r="C251" t="n">
-        <v>1.075769348144533</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>106.1718673706055</v>
-      </c>
-      <c r="B252" t="n">
-        <v>106.67</v>
-      </c>
-      <c r="C252" t="n">
-        <v>0.498132629394533</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>107.5404968261719</v>
-      </c>
-      <c r="B253" t="n">
-        <v>111.11</v>
-      </c>
-      <c r="C253" t="n">
-        <v>3.569503173828124</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>109.9003601074219</v>
-      </c>
-      <c r="B254" t="n">
-        <v>105.96</v>
-      </c>
-      <c r="C254" t="n">
-        <v>3.940360107421881</v>
+        <v>1.209639892578124</v>
       </c>
     </row>
   </sheetData>
